--- a/StackExchange_upgrade.xlsx
+++ b/StackExchange_upgrade.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhijiezhong/Work/Research/USC/empirical/attachment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhijiezhong/Work/Research/USC/USCstudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AB3CB4-385A-0748-BB67-5A80C6DF1300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43040B61-20EE-CB40-9417-E10713D933A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1019</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -3509,14 +3512,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
@@ -12621,6 +12625,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R1019" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
